--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -794,14 +794,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2323194</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>85476</xdr:rowOff>
+      <xdr:rowOff>66426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,7 +818,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="12944475"/>
+          <a:off x="1847850" y="12925425"/>
           <a:ext cx="7247619" cy="1990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2530,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t xml:space="preserve">O2VV_verification </t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Recordings</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Slides</t>
   </si>
 </sst>
 </file>
@@ -450,16 +462,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2200275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>37492</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9280</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -476,7 +488,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="3181350"/>
+          <a:off x="2457450" y="2409825"/>
           <a:ext cx="4866667" cy="1961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -489,15 +501,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9019</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85567</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2418844</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -514,7 +526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="5095875"/>
+          <a:off x="2438400" y="4486275"/>
           <a:ext cx="4047619" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -526,16 +538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1237701</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123675</xdr:rowOff>
+      <xdr:colOff>2199726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -552,7 +564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="6724650"/>
+          <a:off x="4581525" y="6257925"/>
           <a:ext cx="4390476" cy="1200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -565,15 +577,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2961905</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133238</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="5895975"/>
+          <a:off x="7010400" y="4067175"/>
           <a:ext cx="2961905" cy="895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -602,16 +614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1933056</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>190381</xdr:rowOff>
+      <xdr:colOff>1161531</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -628,7 +640,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="8181975"/>
+          <a:off x="1076325" y="7743825"/>
           <a:ext cx="4152381" cy="952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -641,15 +653,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>599231</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180714</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18206</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +678,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="7991475"/>
+          <a:off x="9848850" y="8572500"/>
           <a:ext cx="6752381" cy="2085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -716,16 +728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2018770</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>37833</xdr:rowOff>
+      <xdr:colOff>809095</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,7 +754,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="10277475"/>
+          <a:off x="638175" y="9734550"/>
           <a:ext cx="4238095" cy="2133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -755,15 +767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2705099</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120916</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2787916</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -780,7 +792,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772274" y="10467975"/>
+          <a:off x="4505324" y="10115550"/>
           <a:ext cx="5054867" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -792,16 +804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2323194</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>66426</xdr:rowOff>
+      <xdr:colOff>837294</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,7 +830,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="12925425"/>
+          <a:off x="361950" y="12411075"/>
           <a:ext cx="7247619" cy="1990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2530,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,16 +2685,16 @@
     <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2695,29 +2707,41 @@
       <c r="D3" s="21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2728,22 +2752,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Slides</t>
+  </si>
+  <si>
+    <t>Software Modles</t>
+  </si>
+  <si>
+    <t>Project formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDD with examples … Junit classes </t>
+  </si>
+  <si>
+    <t>Sales Example</t>
   </si>
 </sst>
 </file>
@@ -843,6 +855,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1980614</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="3943350"/>
+          <a:ext cx="4685714" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1466051</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="6467475"/>
+          <a:ext cx="6390476" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>570971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="4562475"/>
+          <a:ext cx="4228571" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2542,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -2673,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,16 +2887,30 @@
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2810,6 +2955,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -971,6 +971,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113670</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="7991475"/>
+          <a:ext cx="5038095" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304265</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="7562850"/>
+          <a:ext cx="4276190" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1999727</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="11306175"/>
+          <a:ext cx="4180952" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18507</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="12182475"/>
+          <a:ext cx="4342857" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2804,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +3116,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -1164,6 +1164,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1809246</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="2943225"/>
+          <a:ext cx="4028571" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2994,7 +3037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3279,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,6 +3442,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -1204,6 +1204,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247155</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="2943225"/>
+          <a:ext cx="3961905" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1647281</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="4943475"/>
+          <a:ext cx="4352381" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3322,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -1280,6 +1280,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113732</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="4505325"/>
+          <a:ext cx="4542857" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3398,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -1321,6 +1321,478 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1961030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810001" y="2621483"/>
+          <a:ext cx="8617324" cy="1626990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661647" y="4448735"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>265100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3204882" y="4605618"/>
+          <a:ext cx="3828571" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>141765</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="4594412"/>
+          <a:ext cx="4400000" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176139</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="4437529"/>
+          <a:ext cx="7314286" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2668963</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>53183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22412" y="8157882"/>
+          <a:ext cx="6714286" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56074</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>75857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13895294"/>
+          <a:ext cx="4123809" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309165</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>105638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972735" y="13648765"/>
+          <a:ext cx="5419048" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443234</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6768353" y="11799794"/>
+          <a:ext cx="4152381" cy="2457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>642239</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067735" y="15609794"/>
+          <a:ext cx="3342857" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241811</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6768353" y="15990794"/>
+          <a:ext cx="6371429" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2084294</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254321</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8852647" y="11093823"/>
+          <a:ext cx="4904762" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3436,7 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3564,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I68" sqref="H68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,6 +4155,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -1527,15 +1527,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>1367118</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2668963</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>53183</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1313051</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>75595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1552,7 +1552,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22412" y="8157882"/>
+          <a:off x="1367118" y="8370794"/>
           <a:ext cx="6714286" cy="4838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1564,16 +1564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3014382</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>56074</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>75857</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403456</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>109473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13895294"/>
+          <a:off x="9782735" y="11833410"/>
           <a:ext cx="4123809" cy="2742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1602,16 +1602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2005853</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309165</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>105638</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2505519</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>83227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,7 +1628,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972735" y="13648765"/>
+          <a:off x="3854824" y="12673854"/>
           <a:ext cx="5419048" cy="2066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,16 +1640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>443234</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>171143</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219116</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1666,7 +1666,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768353" y="11799794"/>
+          <a:off x="11990294" y="10365440"/>
           <a:ext cx="4152381" cy="2457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1678,16 +1678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2084294</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>145674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>642239</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>85500</xdr:rowOff>
+      <xdr:colOff>1221441</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1704,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4067735" y="15609794"/>
-          <a:ext cx="3342857" cy="1800000"/>
+          <a:off x="3933265" y="15374468"/>
+          <a:ext cx="4056529" cy="2184285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,15 +1717,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1557618</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241811</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114119</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589194</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>158943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1742,7 +1742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768353" y="15990794"/>
+          <a:off x="8325971" y="15083118"/>
           <a:ext cx="6371429" cy="1447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1754,16 +1754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2084294</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1147982</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254321</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27315</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1780,8 +1780,1116 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8852647" y="11093823"/>
-          <a:ext cx="4904762" cy="1114286"/>
+          <a:off x="2996953" y="9838767"/>
+          <a:ext cx="8096871" cy="1839484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4556825" cy="3881319"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15071912" y="12662646"/>
+          <a:ext cx="4556825" cy="3881319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!DOCTYPE html&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;html lang="en"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;meta charset="UTF-8"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;title&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/title&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;script</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            src="https://code.jquery.com/jquery-3.5.1.min.js"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            integrity="sha256-9/aliU8dGd2tb6OSsuzixeV4y/faTqgFtohetphbbj0="</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            crossorigin="anonymous"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;script src="js/jquery1.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div id="id1"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>BeanHead </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;input type="text" id="t1"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;select name="foo" id="bar"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;option value="1"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>One </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/option&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;option value="2"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Two </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/option&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;option value="3"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Three </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/option&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/select&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;button id="button1" onclick="myFunct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Click me</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/button&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/html&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2621039" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16528676" y="16663147"/>
+          <a:ext cx="2621039" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function myFunct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(){</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"1"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   var </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>id = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getElementById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"t1"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>( id )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2247367</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="2381250"/>
+          <a:ext cx="4266667" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1818770</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="4562475"/>
+          <a:ext cx="4038095" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56602</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="4133850"/>
+          <a:ext cx="4380952" cy="1161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189861</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="7038975"/>
+          <a:ext cx="5114286" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4036,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I68" sqref="H68:I68"/>
+    <sheetView topLeftCell="B71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,6 +5390,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -2749,15 +2749,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>1866900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2247367</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180835</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323317</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2774,7 +2774,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="2381250"/>
+          <a:off x="5934075" y="2505075"/>
           <a:ext cx="4266667" cy="1123810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2787,15 +2787,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1818770</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85548</xdr:rowOff>
+      <xdr:colOff>2047370</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2812,7 +2812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="4562475"/>
+          <a:off x="2076450" y="4086225"/>
           <a:ext cx="4038095" cy="1419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2862,16 +2862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>189861</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>37857</xdr:rowOff>
+      <xdr:colOff>8886</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2888,7 +2888,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="7038975"/>
+          <a:off x="1666875" y="5629275"/>
           <a:ext cx="5114286" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5271,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -2901,6 +2901,239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332564</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="1714500"/>
+          <a:ext cx="6485714" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2685473</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4210050"/>
+          <a:ext cx="4619048" cy="2123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>199851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="3133725"/>
+          <a:ext cx="5295238" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218507</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="5514975"/>
+          <a:ext cx="4542857" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1456296</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6724650"/>
+          <a:ext cx="8228571" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608918</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="6638925"/>
+          <a:ext cx="5457143" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5271,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C41" sqref="C40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,8 +5631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,6 +5750,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
+++ b/CSC3510 S2021/00CourseNotesFormat  MY NOTES CSC3510 TU TH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Intrstructions" sheetId="34" r:id="rId1"/>
@@ -3134,6 +3134,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561431</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>199724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="2114550"/>
+          <a:ext cx="4352381" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1933056</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="3562350"/>
+          <a:ext cx="4152381" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532793</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="1362075"/>
+          <a:ext cx="4857143" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>913863</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="4943475"/>
+          <a:ext cx="4295238" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4329,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G17" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,6 +4605,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5631,7 +5789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
